--- a/QA/TestData/SCO_TestData.xlsx
+++ b/QA/TestData/SCO_TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnukella\PycharmProjects\JuniperAutoDemo-masterEnhancement\QA\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnukella\SCO_Automation\QA\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18664669-A36F-4B1F-9148-3E5A07BEFD5B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E95757-4F5E-453A-A898-B719296109BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{2C919BBB-2468-4C0D-9A1B-058082713F39}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2C919BBB-2468-4C0D-9A1B-058082713F39}"/>
   </bookViews>
   <sheets>
     <sheet name="SCAR" sheetId="1" r:id="rId1"/>
@@ -56,9 +56,6 @@
     <t>Juniper@190229</t>
   </si>
   <si>
-    <t>TC001_SCAR_LoginValidCredentials</t>
-  </si>
-  <si>
     <t>TC001_SCAR_CreateOpportunity</t>
   </si>
   <si>
@@ -81,6 +78,9 @@
   </si>
   <si>
     <t>TC002_QIP_CreateOpportunity</t>
+  </si>
+  <si>
+    <t>TC001_SCAR_CreatingSCAR</t>
   </si>
 </sst>
 </file>
@@ -453,8 +453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5013F1D3-0477-456D-A29B-4A9ECC2813D6}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,7 +480,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -500,18 +500,18 @@
         <v>2</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
@@ -520,13 +520,13 @@
         <v>6</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -537,7 +537,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;7&amp;K000000Juniper Internal</oddFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;7&amp;K000000Juniper Business Use Only</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -546,7 +546,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{350E31AB-638B-4C13-B6C7-85D83B20F2D1}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
@@ -571,18 +571,18 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
@@ -591,13 +591,13 @@
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" t="s">
         <v>13</v>
-      </c>
-      <c r="F2" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -616,7 +616,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;7&amp;K000000Juniper Internal</oddFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;7&amp;K000000Juniper Business Use Only</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -684,7 +684,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;7&amp;K000000Juniper Internal</oddFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;7&amp;K000000Juniper Business Use Only</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/QA/TestData/SCO_TestData.xlsx
+++ b/QA/TestData/SCO_TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nnukella\SCO_Automation\QA\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9E95757-4F5E-453A-A898-B719296109BF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DEBFA9-8667-4950-9284-4E6872EC1E3E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{2C919BBB-2468-4C0D-9A1B-058082713F39}"/>
+    <workbookView xWindow="3360" yWindow="0" windowWidth="19515" windowHeight="12900" xr2:uid="{2C919BBB-2468-4C0D-9A1B-058082713F39}"/>
   </bookViews>
   <sheets>
     <sheet name="SCAR" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="32">
   <si>
     <t>TestName</t>
   </si>
@@ -81,6 +81,54 @@
   </si>
   <si>
     <t>TC001_SCAR_CreatingSCAR</t>
+  </si>
+  <si>
+    <t>AffectedPart</t>
+  </si>
+  <si>
+    <t>ProblemDescription</t>
+  </si>
+  <si>
+    <t>AutomationTest</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>UserGroup</t>
+  </si>
+  <si>
+    <t>PQE</t>
+  </si>
+  <si>
+    <t>FLEXTRONICS-PENANG</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Test Supplier 3</t>
+  </si>
+  <si>
+    <t>Test Supplier 2</t>
+  </si>
+  <si>
+    <t>Escalation</t>
+  </si>
+  <si>
+    <t>kolicherlak@juniper.net</t>
+  </si>
+  <si>
+    <t>Jn_Escalation</t>
+  </si>
+  <si>
+    <t>Test Supplier</t>
+  </si>
+  <si>
+    <t>JnWatchlist</t>
   </si>
 </sst>
 </file>
@@ -131,11 +179,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -451,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5013F1D3-0477-456D-A29B-4A9ECC2813D6}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,9 +514,12 @@
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
     <col min="5" max="5" width="16.5703125" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" customWidth="1"/>
+    <col min="7" max="7" width="24.7109375" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -477,8 +529,32 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -488,8 +564,32 @@
       <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -509,7 +609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -533,9 +633,10 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{B7BB4037-EC12-4F54-9C21-DFDB4D7F0AF2}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{651F2C5A-7549-4467-8F48-AFB661E44ADB}"/>
+    <hyperlink ref="J2" r:id="rId3" xr:uid="{13461218-8D0A-4C0E-8E2D-818CD622F62D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId4"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;7&amp;K000000Juniper Business Use Only</oddFooter>
   </headerFooter>
